--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85011.27259822781</v>
+        <v>76427.11581086728</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737736</v>
+        <v>18158024.90737737</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3637201.516580754</v>
+        <v>3564178.265979968</v>
       </c>
     </row>
     <row r="11">
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>209.7183039501509</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>52.25285621099523</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>54.68688746169137</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.9483858441846</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>124.2300588940531</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>51.12910110475079</v>
       </c>
       <c r="F24" t="n">
         <v>107.8702810193205</v>
@@ -2415,7 +2417,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,13 +2453,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50.58484539413526</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2488,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>54.68688746169092</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>247.8474286207991</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>99.38676347493956</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2636,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>40.83524938271994</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V27" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>98.94574135710913</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>61.29526474944497</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2767,7 +2769,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>46.07723789946568</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>341.6784094701706</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>6.374829710813255</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>157.7484451748619</v>
@@ -2931,10 +2933,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>158.5642940269727</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>96.74669532747903</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>48.57570989689595</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="F32" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y32" t="n">
-        <v>390.1527797502169</v>
+        <v>86.02180387646598</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3110,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>54.202925671511</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6.926911225809273</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>140.2558790731718</v>
+        <v>36.33272674070962</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.6621491913812</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
     <row r="36">
@@ -3348,13 +3350,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>46.81639043291494</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>9.256509473187581</v>
       </c>
       <c r="G36" t="n">
         <v>105.9202115588047</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3444,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>180.4964215242403</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>171.5100489325637</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>343.6465684039909</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3591,10 +3593,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>73.92477447070563</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>159.7023114399438</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3667,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>100.2024446040596</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>144.2018606410493</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.4404601920395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>353.8766502980249</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3831,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>54.89441676184293</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>107.2569099399857</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3955,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>92.04356500359999</v>
+        <v>29.06736062834969</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>335.8852719351412</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>122.6791835200027</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.5470574896206</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>819.3996562188394</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>425.3059392994284</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.3976938477716</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>285.3976938477716</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>671.6489458004863</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1057.900197753201</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1198.893466516011</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1198.893466516011</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1198.893466516011</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.054473311303</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.330043794968</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1425.330043794968</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>192.9527650369019</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>140.1721021975128</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>140.1721021975128</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>140.1721021975128</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>224.0250799426506</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>610.2763318953653</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>610.2763318953653</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>610.2763318953653</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>996.52758384808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1144.800347685523</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1531.051599638238</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1531.051599638238</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1452.621109115176</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1293.279245302185</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1095.928434440403</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>882.216907433437</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>668.9837391697657</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>492.6577573086585</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>333.2557976724885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>909.8318518552715</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>738.738479416988</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>579.2438347398979</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>418.3330196082174</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>253.7018937188087</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>86.45150264435208</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.29477178522787</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074659</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>459.7441997875264</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>749.0082562280197</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.84703862227</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1289.407648948744</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1495.083089198357</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1322.267256860551</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.531558249316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.21222238001735</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="C23" t="n">
-        <v>31.21222238001735</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="D23" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="E23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J23" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K23" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L23" t="n">
-        <v>426.3909626105813</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M23" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N23" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O23" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P23" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q23" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R23" t="n">
         <v>1560.611119000868</v>
@@ -6017,22 +6019,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T23" t="n">
-        <v>1425.330043794968</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="U23" t="n">
-        <v>1425.330043794968</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="V23" t="n">
-        <v>1425.330043794968</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="W23" t="n">
-        <v>1041.569742930137</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="X23" t="n">
-        <v>647.4760260107259</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="Y23" t="n">
-        <v>253.3823090913149</v>
+        <v>1299.845135821177</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>568.8016568791199</v>
+        <v>390.3035758986833</v>
       </c>
       <c r="C24" t="n">
-        <v>434.8065856280656</v>
+        <v>390.3035758986833</v>
       </c>
       <c r="D24" t="n">
-        <v>317.909427847458</v>
+        <v>390.3035758986833</v>
       </c>
       <c r="E24" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F24" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G24" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H24" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
@@ -6069,19 +6071,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K24" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L24" t="n">
-        <v>803.7147262854468</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M24" t="n">
-        <v>1189.965978238161</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="N24" t="n">
-        <v>1189.965978238161</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O24" t="n">
-        <v>1189.965978238161</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P24" t="n">
         <v>1560.611119000868</v>
@@ -6099,19 +6101,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U24" t="n">
-        <v>1095.928434440403</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V24" t="n">
-        <v>1044.832631011984</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W24" t="n">
-        <v>1044.832631011984</v>
+        <v>866.3345500315471</v>
       </c>
       <c r="X24" t="n">
-        <v>868.5066491508766</v>
+        <v>690.00856817044</v>
       </c>
       <c r="Y24" t="n">
-        <v>709.1046895147066</v>
+        <v>530.60660853427</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>516.2488080781966</v>
+        <v>909.831851855271</v>
       </c>
       <c r="C25" t="n">
-        <v>516.2488080781966</v>
+        <v>738.7384794169875</v>
       </c>
       <c r="D25" t="n">
-        <v>356.7541634011066</v>
+        <v>579.2438347398975</v>
       </c>
       <c r="E25" t="n">
-        <v>195.8433482694261</v>
+        <v>418.3330196082169</v>
       </c>
       <c r="F25" t="n">
-        <v>31.21222238001735</v>
+        <v>253.7018937188082</v>
       </c>
       <c r="G25" t="n">
-        <v>31.21222238001735</v>
+        <v>86.45150264435162</v>
       </c>
       <c r="H25" t="n">
-        <v>31.21222238001735</v>
+        <v>86.45150264435162</v>
       </c>
       <c r="I25" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280195</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6163,34 +6165,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P25" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q25" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R25" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S25" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T25" t="n">
-        <v>1049.39789353288</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U25" t="n">
-        <v>766.5997460790038</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V25" t="n">
-        <v>516.2488080781966</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W25" t="n">
-        <v>516.2488080781966</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X25" t="n">
-        <v>516.2488080781966</v>
+        <v>1322.267256860551</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.2488080781966</v>
+        <v>1097.531558249315</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>772.4236851620456</v>
+        <v>425.3059392994282</v>
       </c>
       <c r="C26" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="D26" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E26" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F26" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G26" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H26" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I26" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J26" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="L26" t="n">
-        <v>31.21222238001735</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="M26" t="n">
-        <v>40.13971065786654</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="N26" t="n">
-        <v>426.3909626105813</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="O26" t="n">
-        <v>812.642214563296</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="P26" t="n">
-        <v>1198.893466516011</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R26" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000868</v>
+        <v>1460.22044882416</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000868</v>
+        <v>1460.22044882416</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.159957083671</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.159957083671</v>
       </c>
       <c r="W26" t="n">
-        <v>1560.611119000868</v>
+        <v>819.3996562188391</v>
       </c>
       <c r="X26" t="n">
-        <v>1560.611119000868</v>
+        <v>425.3059392994282</v>
       </c>
       <c r="Y26" t="n">
-        <v>1166.517402081457</v>
+        <v>425.3059392994282</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>710.0430642665517</v>
+        <v>192.9527650369014</v>
       </c>
       <c r="C27" t="n">
-        <v>576.0479930154975</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="D27" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E27" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F27" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G27" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H27" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I27" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J27" t="n">
         <v>224.0250799426506</v>
@@ -6312,43 +6314,43 @@
         <v>224.0250799426506</v>
       </c>
       <c r="M27" t="n">
-        <v>408.7046310488249</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="N27" t="n">
-        <v>794.9558830015396</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="O27" t="n">
-        <v>794.9558830015396</v>
+        <v>794.9558830015393</v>
       </c>
       <c r="P27" t="n">
         <v>1181.207134954254</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R27" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S27" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U27" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V27" t="n">
-        <v>1399.307206663087</v>
+        <v>882.2169074334365</v>
       </c>
       <c r="W27" t="n">
-        <v>1186.074038399415</v>
+        <v>668.9837391697653</v>
       </c>
       <c r="X27" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086581</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.3460969021384</v>
+        <v>333.2557976724881</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1049.39789353288</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="C28" t="n">
-        <v>949.4527002428704</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="D28" t="n">
         <v>789.9580555657803</v>
@@ -6382,7 +6384,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K28" t="n">
         <v>199.8470995074659</v>
@@ -6391,7 +6393,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6400,34 +6402,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P28" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q28" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R28" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S28" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="T28" t="n">
-        <v>1049.39789353288</v>
+        <v>1134.670611857479</v>
       </c>
       <c r="U28" t="n">
-        <v>1049.39789353288</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="V28" t="n">
-        <v>1049.39789353288</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="W28" t="n">
-        <v>1049.39789353288</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="X28" t="n">
-        <v>1049.39789353288</v>
+        <v>851.8724644036035</v>
       </c>
       <c r="Y28" t="n">
-        <v>1049.39789353288</v>
+        <v>851.8724644036035</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>782.7571012166252</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="C29" t="n">
-        <v>388.6633842972142</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="D29" t="n">
-        <v>388.6633842972142</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="E29" t="n">
-        <v>388.6633842972142</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="F29" t="n">
-        <v>388.6633842972142</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G29" t="n">
-        <v>388.6633842972142</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H29" t="n">
-        <v>77.75488692493218</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I29" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J29" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L29" t="n">
-        <v>361.3007174531585</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M29" t="n">
-        <v>361.3007174531585</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N29" t="n">
-        <v>747.5519694058733</v>
+        <v>426.390962610581</v>
       </c>
       <c r="O29" t="n">
-        <v>1133.803221358588</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="P29" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q29" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R29" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207236</v>
       </c>
       <c r="V29" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="W29" t="n">
-        <v>1176.850818136036</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="X29" t="n">
-        <v>782.7571012166252</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="Y29" t="n">
-        <v>782.7571012166252</v>
+        <v>736.2144366717102</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>434.8065856280656</v>
+        <v>530.3359714847725</v>
       </c>
       <c r="C30" t="n">
-        <v>434.8065856280656</v>
+        <v>396.3409002337181</v>
       </c>
       <c r="D30" t="n">
-        <v>317.909427847458</v>
+        <v>279.4437424531105</v>
       </c>
       <c r="E30" t="n">
-        <v>317.909427847458</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="F30" t="n">
-        <v>208.9495480299626</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9594353443013</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="H30" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I30" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>417.4634743327321</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L30" t="n">
-        <v>803.7147262854468</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M30" t="n">
-        <v>1189.965978238161</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="N30" t="n">
-        <v>1189.965978238161</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="O30" t="n">
-        <v>1189.965978238161</v>
+        <v>794.9558830015393</v>
       </c>
       <c r="P30" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q30" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R30" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S30" t="n">
-        <v>1554.171897070753</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T30" t="n">
-        <v>1394.830033257761</v>
+        <v>1401.269255187875</v>
       </c>
       <c r="U30" t="n">
-        <v>1197.47922239598</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V30" t="n">
-        <v>983.767695389014</v>
+        <v>990.2069173191278</v>
       </c>
       <c r="W30" t="n">
-        <v>770.5345271253427</v>
+        <v>990.2069173191278</v>
       </c>
       <c r="X30" t="n">
-        <v>594.2085452642356</v>
+        <v>830.0409637565291</v>
       </c>
       <c r="Y30" t="n">
-        <v>434.8065856280656</v>
+        <v>670.6390041203591</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1047.176634917092</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C31" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D31" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E31" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F31" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G31" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H31" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I31" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J31" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K31" t="n">
         <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6637,34 +6639,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P31" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q31" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R31" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S31" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556177</v>
       </c>
       <c r="T31" t="n">
-        <v>1321.06237997757</v>
+        <v>1049.397893532879</v>
       </c>
       <c r="U31" t="n">
-        <v>1321.06237997757</v>
+        <v>766.5997460790034</v>
       </c>
       <c r="V31" t="n">
-        <v>1047.176634917092</v>
+        <v>492.7140010185253</v>
       </c>
       <c r="W31" t="n">
-        <v>1047.176634917092</v>
+        <v>443.647627385297</v>
       </c>
       <c r="X31" t="n">
-        <v>1047.176634917092</v>
+        <v>443.647627385297</v>
       </c>
       <c r="Y31" t="n">
-        <v>1047.176634917092</v>
+        <v>218.9119287740617</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.6633842972142</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="C32" t="n">
-        <v>388.6633842972142</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="D32" t="n">
-        <v>388.6633842972142</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="E32" t="n">
-        <v>388.6633842972142</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F32" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G32" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H32" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I32" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L32" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="M32" t="n">
-        <v>803.7147262854468</v>
+        <v>80.69635634743133</v>
       </c>
       <c r="N32" t="n">
-        <v>1189.965978238161</v>
+        <v>466.9476083001459</v>
       </c>
       <c r="O32" t="n">
-        <v>1189.965978238161</v>
+        <v>853.1988602528605</v>
       </c>
       <c r="P32" t="n">
-        <v>1239.450112205576</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="Q32" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R32" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T32" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U32" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260377</v>
       </c>
       <c r="V32" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260377</v>
       </c>
       <c r="W32" t="n">
-        <v>1176.850818136036</v>
+        <v>1303.550627260377</v>
       </c>
       <c r="X32" t="n">
-        <v>1176.850818136036</v>
+        <v>909.4569103409664</v>
       </c>
       <c r="Y32" t="n">
-        <v>782.7571012166252</v>
+        <v>822.5661993546371</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>192.9527650369019</v>
+        <v>192.9527650369014</v>
       </c>
       <c r="C33" t="n">
-        <v>138.2023350656787</v>
+        <v>58.95769378584714</v>
       </c>
       <c r="D33" t="n">
-        <v>138.2023350656787</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="E33" t="n">
-        <v>138.2023350656787</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="F33" t="n">
-        <v>138.2023350656787</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="G33" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="H33" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I33" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J33" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>610.2763318953653</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="L33" t="n">
-        <v>996.52758384808</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.359867048153</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="N33" t="n">
-        <v>1174.359867048153</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="O33" t="n">
-        <v>1560.611119000868</v>
+        <v>1174.359867048152</v>
       </c>
       <c r="P33" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R33" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S33" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T33" t="n">
-        <v>1293.279245302185</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U33" t="n">
         <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>882.216907433437</v>
+        <v>882.2169074334365</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9837391697657</v>
+        <v>668.9837391697653</v>
       </c>
       <c r="X33" t="n">
-        <v>492.6577573086585</v>
+        <v>492.6577573086581</v>
       </c>
       <c r="Y33" t="n">
-        <v>333.2557976724885</v>
+        <v>333.2557976724881</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>765.5833643461972</v>
+        <v>399.9161339304961</v>
       </c>
       <c r="C34" t="n">
-        <v>765.5833643461972</v>
+        <v>228.8227614922126</v>
       </c>
       <c r="D34" t="n">
-        <v>606.0887196691071</v>
+        <v>228.8227614922126</v>
       </c>
       <c r="E34" t="n">
-        <v>606.0887196691071</v>
+        <v>67.91194636053211</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I34" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J34" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L34" t="n">
         <v>459.7441997875264</v>
@@ -6877,31 +6879,31 @@
         <v>1495.083089198357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S34" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="U34" t="n">
-        <v>1277.812971546992</v>
+        <v>1091.421203426901</v>
       </c>
       <c r="V34" t="n">
-        <v>1003.927226486514</v>
+        <v>1091.421203426901</v>
       </c>
       <c r="W34" t="n">
-        <v>1003.927226486514</v>
+        <v>812.3515389357758</v>
       </c>
       <c r="X34" t="n">
-        <v>765.5833643461972</v>
+        <v>812.3515389357758</v>
       </c>
       <c r="Y34" t="n">
-        <v>765.5833643461972</v>
+        <v>587.6158403245405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6913,64 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>425.3059392994282</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="D35" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="E35" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="F35" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="G35" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="H35" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="I35" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="J35" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="K35" t="n">
+        <v>671.6489458004862</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1057.900197753201</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1198.89346651601</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1198.89346651601</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1198.89346651601</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1198.89346651601</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1520.054473311302</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1560.611119000867</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1435.699857191391</v>
+      </c>
+      <c r="T35" t="n">
         <v>1213.49337313825</v>
       </c>
-      <c r="C35" t="n">
-        <v>819.3996562188394</v>
-      </c>
-      <c r="D35" t="n">
-        <v>425.3059392994284</v>
-      </c>
-      <c r="E35" t="n">
-        <v>425.3059392994284</v>
-      </c>
-      <c r="F35" t="n">
-        <v>425.3059392994284</v>
-      </c>
-      <c r="G35" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="H35" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="I35" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="J35" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="K35" t="n">
-        <v>80.69635634743145</v>
-      </c>
-      <c r="L35" t="n">
-        <v>80.69635634743145</v>
-      </c>
-      <c r="M35" t="n">
-        <v>80.69635634743145</v>
-      </c>
-      <c r="N35" t="n">
-        <v>466.9476083001462</v>
-      </c>
-      <c r="O35" t="n">
-        <v>853.1988602528609</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1239.450112205576</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1560.611119000868</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1560.611119000868</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1560.611119000868</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1560.611119000868</v>
-      </c>
       <c r="U35" t="n">
-        <v>1560.611119000868</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="V35" t="n">
         <v>1213.49337313825</v>
@@ -6977,10 +6979,10 @@
         <v>1213.49337313825</v>
       </c>
       <c r="X35" t="n">
-        <v>1213.49337313825</v>
+        <v>819.3996562188391</v>
       </c>
       <c r="Y35" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994282</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>619.6865983717549</v>
+        <v>352.2946288498932</v>
       </c>
       <c r="C36" t="n">
-        <v>485.6915271207006</v>
+        <v>218.2995575988389</v>
       </c>
       <c r="D36" t="n">
-        <v>438.40224385513</v>
+        <v>218.2995575988389</v>
       </c>
       <c r="E36" t="n">
-        <v>317.909427847458</v>
+        <v>218.2995575988389</v>
       </c>
       <c r="F36" t="n">
         <v>208.9495480299626</v>
@@ -7008,58 +7010,58 @@
         <v>101.9594353443013</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J36" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
-        <v>610.2763318953653</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="L36" t="n">
-        <v>996.52758384808</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="M36" t="n">
-        <v>1181.207134954254</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="N36" t="n">
-        <v>1181.207134954254</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="O36" t="n">
-        <v>1181.207134954254</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="P36" t="n">
         <v>1181.207134954254</v>
       </c>
       <c r="Q36" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S36" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U36" t="n">
-        <v>1363.260308139086</v>
+        <v>1255.270298253394</v>
       </c>
       <c r="V36" t="n">
-        <v>1149.54878113212</v>
+        <v>1041.558771246428</v>
       </c>
       <c r="W36" t="n">
-        <v>936.3156128684487</v>
+        <v>828.325602982757</v>
       </c>
       <c r="X36" t="n">
-        <v>759.9896310073416</v>
+        <v>651.9996211216499</v>
       </c>
       <c r="Y36" t="n">
-        <v>759.9896310073416</v>
+        <v>492.5976614854799</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.546072681154</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="C37" t="n">
-        <v>949.4527002428704</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D37" t="n">
-        <v>789.9580555657803</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E37" t="n">
-        <v>629.0472404340999</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F37" t="n">
-        <v>464.4161145446911</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G37" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J37" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L37" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875262</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280195</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7111,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="U37" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="X37" t="n">
-        <v>1532.981477686434</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="Y37" t="n">
-        <v>1308.245779075198</v>
+        <v>1191.899733179524</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>736.2144366717104</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="C38" t="n">
-        <v>342.1207197522994</v>
+        <v>819.3996562188391</v>
       </c>
       <c r="D38" t="n">
-        <v>342.1207197522994</v>
+        <v>425.3059392994282</v>
       </c>
       <c r="E38" t="n">
-        <v>342.1207197522994</v>
+        <v>425.3059392994282</v>
       </c>
       <c r="F38" t="n">
-        <v>342.1207197522994</v>
+        <v>425.3059392994282</v>
       </c>
       <c r="G38" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J38" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K38" t="n">
-        <v>671.6489458004863</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="L38" t="n">
-        <v>671.6489458004863</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="M38" t="n">
-        <v>812.642214563296</v>
+        <v>426.390962610581</v>
       </c>
       <c r="N38" t="n">
-        <v>812.642214563296</v>
+        <v>426.390962610581</v>
       </c>
       <c r="O38" t="n">
-        <v>812.642214563296</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="P38" t="n">
-        <v>1198.893466516011</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U38" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V38" t="n">
-        <v>1130.308153591121</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W38" t="n">
-        <v>1130.308153591121</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X38" t="n">
-        <v>1130.308153591121</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="Y38" t="n">
-        <v>1130.308153591121</v>
+        <v>1213.49337313825</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>477.2687567837004</v>
+        <v>618.5472599225079</v>
       </c>
       <c r="C39" t="n">
-        <v>343.2736855326461</v>
+        <v>484.5521886714537</v>
       </c>
       <c r="D39" t="n">
-        <v>226.3765277520385</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="E39" t="n">
-        <v>105.8837117443665</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F39" t="n">
-        <v>31.21222238001735</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G39" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H39" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J39" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>610.2763318953653</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="L39" t="n">
-        <v>996.52758384808</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.359867048153</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="N39" t="n">
-        <v>1174.359867048153</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="O39" t="n">
-        <v>1174.359867048153</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="P39" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q39" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S39" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T39" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U39" t="n">
-        <v>1203.918444326094</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="V39" t="n">
-        <v>990.2069173191283</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W39" t="n">
-        <v>776.973749055457</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="X39" t="n">
-        <v>776.973749055457</v>
+        <v>918.2522521942645</v>
       </c>
       <c r="Y39" t="n">
-        <v>617.571789419287</v>
+        <v>758.8502925580946</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>303.5201853274519</v>
+        <v>347.9640399102699</v>
       </c>
       <c r="C40" t="n">
-        <v>132.4268128891684</v>
+        <v>176.8706674719864</v>
       </c>
       <c r="D40" t="n">
-        <v>132.4268128891684</v>
+        <v>176.8706674719864</v>
       </c>
       <c r="E40" t="n">
-        <v>31.21222238001735</v>
+        <v>176.8706674719864</v>
       </c>
       <c r="F40" t="n">
-        <v>31.21222238001735</v>
+        <v>176.8706674719864</v>
       </c>
       <c r="G40" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H40" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J40" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L40" t="n">
         <v>459.7441997875264</v>
@@ -7354,28 +7356,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S40" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T40" t="n">
-        <v>1049.39789353288</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U40" t="n">
-        <v>766.5997460790038</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V40" t="n">
-        <v>766.5997460790038</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="W40" t="n">
-        <v>766.5997460790038</v>
+        <v>998.7433070558661</v>
       </c>
       <c r="X40" t="n">
-        <v>528.2558839386872</v>
+        <v>760.3994449155496</v>
       </c>
       <c r="Y40" t="n">
-        <v>303.5201853274519</v>
+        <v>535.6637463043143</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.21222238001735</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="C41" t="n">
-        <v>31.21222238001735</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="D41" t="n">
-        <v>31.21222238001735</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="E41" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G41" t="n">
         <v>31.21222238001735</v>
@@ -7409,52 +7411,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K41" t="n">
-        <v>285.3976938477716</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3976938477716</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="M41" t="n">
-        <v>285.3976938477716</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N41" t="n">
-        <v>671.6489458004863</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="O41" t="n">
-        <v>1057.900197753201</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P41" t="n">
-        <v>1444.151449705916</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q41" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R41" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T41" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U41" t="n">
-        <v>946.0630680013373</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V41" t="n">
-        <v>596.225513337818</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W41" t="n">
-        <v>212.4652124729866</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X41" t="n">
-        <v>212.4652124729866</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.4652124729866</v>
+        <v>1176.850818136036</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>618.5472599225079</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C42" t="n">
-        <v>484.5521886714537</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D42" t="n">
-        <v>367.6550308908461</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E42" t="n">
-        <v>247.1622148831741</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F42" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G42" t="n">
         <v>31.21222238001735</v>
@@ -7491,49 +7493,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>438.2641504114549</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L42" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M42" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N42" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O42" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P42" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q42" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R42" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S42" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T42" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V42" t="n">
-        <v>1307.811402319043</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W42" t="n">
-        <v>1094.578234055372</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="X42" t="n">
-        <v>918.2522521942645</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y42" t="n">
-        <v>758.8502925580946</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>672.3185098216147</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C43" t="n">
-        <v>501.2251373833312</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="D43" t="n">
-        <v>341.7304927062412</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E43" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F43" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G43" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H43" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I43" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J43" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L43" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M43" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N43" t="n">
         <v>1029.84703862227</v>
@@ -7591,28 +7593,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1475.338400676267</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T43" t="n">
-        <v>1235.789661652969</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U43" t="n">
-        <v>952.9915141990934</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V43" t="n">
-        <v>952.9915141990934</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W43" t="n">
-        <v>952.9915141990934</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X43" t="n">
-        <v>952.9915141990934</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="Y43" t="n">
-        <v>860.0182162156591</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>681.398772212038</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>681.398772212038</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1346.899591993901</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1133.66642373023</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>486.5136998550713</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>486.5136998550713</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>327.0190551779813</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>166.1082400463008</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>749.0082562280195</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>724.8575619953879</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>486.5136998550713</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>486.5136998550713</v>
       </c>
     </row>
   </sheetData>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>235.3297339513764</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
         <v>93.18977562578313</v>
@@ -9419,10 +9421,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9489,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>207.5219475226696</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L23" t="n">
-        <v>237.902841257602</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M23" t="n">
-        <v>483.4430042072623</v>
+        <v>143.2741981615041</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
@@ -9659,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9719,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>447.7170634886343</v>
+        <v>431.9533148118579</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P24" t="n">
-        <v>428.6486660762444</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>237.9028412576018</v>
       </c>
       <c r="M26" t="n">
-        <v>102.3078893841658</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P26" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9960,16 +9962,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>443.3461731439669</v>
+        <v>239.7383945110976</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502168</v>
       </c>
       <c r="P27" t="n">
-        <v>444.4124147530206</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>428.908120358947</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513763</v>
       </c>
       <c r="O29" t="n">
-        <v>483.342555376</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P29" t="n">
-        <v>483.8021430311011</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>244.2964801173476</v>
       </c>
       <c r="P30" t="n">
-        <v>398.7905657099514</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10273,7 +10275,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091145</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10349,22 +10351,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>483.4430042072623</v>
+        <v>143.274198161504</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068362</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P32" t="n">
-        <v>143.633336985343</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10428,22 +10430,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9785625348323</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L33" t="n">
-        <v>446.2673035610659</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M33" t="n">
-        <v>237.1928526273799</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>447.9042587502169</v>
+        <v>237.3800478889623</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10525,7 +10527,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>127.5494547533705</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>139.1203633776758</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>235.7076676518025</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10667,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9785625348323</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>244.1092848557653</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10680,7 +10682,7 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>240.8046361201513</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10747,7 +10749,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>317.150617409114</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10820,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>479.289169423434</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L38" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>235.7076676518026</v>
+        <v>102.3078893841657</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P38" t="n">
-        <v>483.8021430311011</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10902,13 +10904,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9785625348323</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2673035610659</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M39" t="n">
-        <v>237.1928526273799</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10917,13 +10919,13 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>444.4124147530206</v>
+        <v>240.8046361201513</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>139.1203633776758</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N41" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O41" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.7035252126741</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>272.2288842682561</v>
+        <v>242.3707839019632</v>
       </c>
       <c r="L42" t="n">
         <v>446.2673035610659</v>
@@ -11160,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,7 +11220,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
@@ -11318,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>398.7905657099514</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23975,13 +23977,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>44.77158287293412</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>80.40226432754852</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -24057,7 +24059,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>105.9202115588047</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>93.42449318090654</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24190,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>186.17058202366</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24224,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>95.75436031855669</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24266,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>68.1587867428445</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
-        <v>160.9895663427612</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>60.49569797502618</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>23.29945898907414</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>15.87056502964566</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>66.55024492428123</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>34.54150097890059</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24524,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>91.81987115582379</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>70.43669735679153</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>96.60443348087411</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24680,7 +24682,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24689,7 +24691,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563252</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>39.41100715663189</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>4.660769646713504</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>100.535280076021</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24819,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>15.99842801552342</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.63574338642162</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>227.7032579493184</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24923,19 +24925,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805546</v>
       </c>
       <c r="F32" t="n">
-        <v>62.94345762782444</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.774526571173908</v>
+        <v>310.9055024449248</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24998,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>78.45219486703274</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>108.8012749769922</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -25008,13 +25010,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.72893555734282</v>
+        <v>126.652087889805</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25156,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>15.87056502964566</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D35" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25166,7 +25168,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>10.26611526245897</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>2.692610712892986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571174022</v>
       </c>
     </row>
     <row r="36">
@@ -25236,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>68.91179576988654</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>98.61377154613288</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>41.99192010088265</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>15.87056502964566</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765326</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25403,10 +25405,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587933</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25445,16 +25447,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>174.8291301843204</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>52.99039544874609</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25479,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>33.94550654861483</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>14.86041060255229</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>59.09926237630414</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>21.37602652266267</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>226.678507675805</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25634,13 +25636,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>56.32016303024739</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25719,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
         <v>70.03974083464111</v>
@@ -25755,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>156.6799949750536</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>103.8439266410488</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25801,7 +25803,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.4447766215229</v>
+        <v>193.4209809967732</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>70.23369593270331</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25880,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -25922,13 +25924,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26001,16 +26003,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>51.88353852249344</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,13 +26028,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>29.43775714089409</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26077,16 +26079,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493447.8261034162</v>
+        <v>150357.0455461972</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493447.8261034163</v>
+        <v>493447.8261034161</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493447.8261034163</v>
+        <v>493447.8261034162</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493447.8261034163</v>
+        <v>493447.826103416</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493447.8261034163</v>
+        <v>493447.8261034162</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493447.8261034162</v>
+        <v>493447.8261034161</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493447.8261034163</v>
+        <v>493447.8261034162</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150357.0455461972</v>
+        <v>493447.8261034163</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>29101.36365410268</v>
       </c>
       <c r="E2" t="n">
-        <v>29101.36365410268</v>
+        <v>29101.36365410269</v>
       </c>
       <c r="F2" t="n">
         <v>29101.36365410268</v>
@@ -26329,31 +26331,31 @@
         <v>29101.36365410268</v>
       </c>
       <c r="H2" t="n">
-        <v>95419.158609376</v>
+        <v>29101.36365410268</v>
       </c>
       <c r="I2" t="n">
         <v>95419.158609376</v>
       </c>
       <c r="J2" t="n">
-        <v>95419.15860937601</v>
+        <v>95419.15860937593</v>
       </c>
       <c r="K2" t="n">
         <v>95419.15860937598</v>
       </c>
       <c r="L2" t="n">
-        <v>95419.158609376</v>
+        <v>95419.15860937597</v>
       </c>
       <c r="M2" t="n">
-        <v>95419.158609376</v>
+        <v>95419.15860937598</v>
       </c>
       <c r="N2" t="n">
-        <v>95419.158609376</v>
+        <v>95419.15860937597</v>
       </c>
       <c r="O2" t="n">
-        <v>95419.1586093759</v>
+        <v>95419.15860937595</v>
       </c>
       <c r="P2" t="n">
-        <v>29101.36365410268</v>
+        <v>95419.15860937598</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105266.7313516263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>103749.8173439574</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,31 +26435,31 @@
         <v>9700.454551367558</v>
       </c>
       <c r="H4" t="n">
-        <v>32593.54773220026</v>
+        <v>9700.454551367558</v>
       </c>
       <c r="I4" t="n">
         <v>32593.54773220026</v>
       </c>
       <c r="J4" t="n">
-        <v>32593.54773220027</v>
+        <v>32593.54773220026</v>
       </c>
       <c r="K4" t="n">
-        <v>32593.54773220027</v>
+        <v>32593.54773220026</v>
       </c>
       <c r="L4" t="n">
         <v>32593.54773220026</v>
       </c>
       <c r="M4" t="n">
-        <v>32593.54773220027</v>
+        <v>32593.54773220026</v>
       </c>
       <c r="N4" t="n">
-        <v>32593.54773220027</v>
+        <v>32593.54773220026</v>
       </c>
       <c r="O4" t="n">
         <v>32593.54773220027</v>
       </c>
       <c r="P4" t="n">
-        <v>9700.454551367558</v>
+        <v>32593.54773220027</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>23721.28900881319</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>23721.28900881319</v>
       </c>
       <c r="J5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="K5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="L5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="M5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="N5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="O5" t="n">
         <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>23721.28900881319</v>
       </c>
     </row>
     <row r="6">
@@ -26522,13 +26524,13 @@
         <v>-14226.69089726488</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-14226.69089726488</v>
       </c>
       <c r="D6" t="n">
         <v>-14226.69089726488</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273513</v>
       </c>
       <c r="F6" t="n">
         <v>19400.90910273512</v>
@@ -26537,31 +26539,31 @@
         <v>19400.90910273512</v>
       </c>
       <c r="H6" t="n">
-        <v>-66162.40948326373</v>
+        <v>19400.90910273512</v>
       </c>
       <c r="I6" t="n">
+        <v>-64645.49547559486</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39104.32186836249</v>
+      </c>
+      <c r="K6" t="n">
         <v>39104.32186836255</v>
       </c>
-      <c r="J6" t="n">
-        <v>39104.32186836256</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>39104.32186836253</v>
-      </c>
-      <c r="L6" t="n">
-        <v>39104.32186836255</v>
       </c>
       <c r="M6" t="n">
         <v>39104.32186836255</v>
       </c>
       <c r="N6" t="n">
-        <v>39104.32186836255</v>
+        <v>39104.32186836253</v>
       </c>
       <c r="O6" t="n">
-        <v>39104.32186836244</v>
+        <v>39104.3218683625</v>
       </c>
       <c r="P6" t="n">
-        <v>19400.90910273512</v>
+        <v>39104.32186836253</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="K4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O4" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,10 +36141,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.22479737900053</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>156.1134623456949</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>262.5223235152127</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>292.1859155964578</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>283.67553777197</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>262.1824346732062</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>207.7529699491034</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.18992909344529</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L23" t="n">
-        <v>142.4174431947572</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M23" t="n">
-        <v>390.1527797502169</v>
+        <v>49.98397370445868</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>374.3890310734405</v>
+      </c>
+      <c r="N24" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L24" t="n">
+      <c r="O24" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>374.3890310734406</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>142.417443194757</v>
       </c>
       <c r="M26" t="n">
-        <v>9.017664927120396</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>186.5450011173478</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
@@ -36771,7 +36773,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>390.1527797502169</v>
+        <v>142.417443194757</v>
       </c>
       <c r="O29" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P29" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="P30" t="n">
-        <v>344.5309307071477</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -36993,7 +36995,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L31" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M31" t="n">
         <v>292.1859155964578</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>390.1527797502169</v>
+        <v>49.98397370445858</v>
       </c>
       <c r="N32" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P32" t="n">
-        <v>49.9839737044588</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37148,22 +37150,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L33" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M33" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889623</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37245,7 +37247,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344489</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>49.98397370445868</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>186.5450011173479</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37467,7 +37469,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L37" t="n">
-        <v>262.5223235152127</v>
+        <v>262.5223235152125</v>
       </c>
       <c r="M37" t="n">
         <v>292.1859155964578</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>142.4174431947572</v>
+        <v>9.017664927120283</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37622,13 +37624,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L39" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M39" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>49.98397370445868</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>76.66972081352203</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>216.4031014836407</v>
+        <v>186.5450011173478</v>
       </c>
       <c r="L42" t="n">
         <v>390.1527797502169</v>
@@ -37880,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L43" t="n">
         <v>262.5223235152127</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>344.5309307071477</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76427.11581086728</v>
+        <v>66492.53170087324</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737737</v>
+        <v>18158024.90737735</v>
       </c>
     </row>
     <row r="8">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>123.6621491913813</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>124.2300588940531</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>51.12910110475079</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2490,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>54.68688746169092</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>114.8814597031892</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>173.8367970624157</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>99.38676347493956</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="27">
@@ -2636,22 +2636,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>40.83524938271994</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>52.0932078919478</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>61.29526474944497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2772,16 +2772,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>134.6690308694485</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2851,10 +2851,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>341.6784094701706</v>
+        <v>217.9802269103644</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>158.5642940269727</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>178.6099817016686</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>48.57570989689595</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>125.396777664673</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>86.02180387646598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,10 +3113,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>6.926911225809273</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>36.33272674070962</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>164.9137883641682</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.6621491913812</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1527797502168</v>
+        <v>379.8866644877579</v>
       </c>
       <c r="Y35" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>9.256509473187581</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3773027531635</v>
+        <v>24.69961434673203</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>17.28329306462838</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.4964215242403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>303.138642751846</v>
       </c>
       <c r="X38" t="n">
-        <v>343.6465684039909</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>157.7484451748619</v>
+        <v>57.11049760307122</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>159.7023114399438</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>144.2018606410493</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>256.6707069902629</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>83.7221332419082</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>107.2569099399857</v>
+        <v>10.18560638799542</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>35.73692418651437</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.06736062834969</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.8852719351412</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>143.2003641082726</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>390.1527797502169</v>
@@ -4061,22 +4061,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4121,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>122.6791835200027</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>71.27423873582511</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>133.5470574896206</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1299.845135821177</v>
+        <v>550.2172011089044</v>
       </c>
       <c r="C23" t="n">
-        <v>905.7514189017662</v>
+        <v>550.2172011089044</v>
       </c>
       <c r="D23" t="n">
-        <v>511.6577019823552</v>
+        <v>550.2172011089044</v>
       </c>
       <c r="E23" t="n">
-        <v>117.5639850629442</v>
+        <v>156.1234841894934</v>
       </c>
       <c r="F23" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G23" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H23" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J23" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K23" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L23" t="n">
-        <v>803.7147262854468</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M23" t="n">
-        <v>853.1988602528609</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N23" t="n">
-        <v>853.1988602528609</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O23" t="n">
-        <v>853.1988602528609</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P23" t="n">
         <v>1239.450112205576</v>
@@ -6016,25 +6016,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T23" t="n">
-        <v>1299.845135821177</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U23" t="n">
-        <v>1299.845135821177</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V23" t="n">
-        <v>1299.845135821177</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W23" t="n">
-        <v>1299.845135821177</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X23" t="n">
-        <v>1299.845135821177</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="Y23" t="n">
-        <v>1299.845135821177</v>
+        <v>944.3109180283154</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>390.3035758986833</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C24" t="n">
-        <v>390.3035758986833</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D24" t="n">
-        <v>390.3035758986833</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="E24" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F24" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G24" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H24" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J24" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K24" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L24" t="n">
-        <v>31.21222238001735</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M24" t="n">
-        <v>401.8573631427234</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N24" t="n">
-        <v>788.1086150954382</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O24" t="n">
-        <v>1174.359867048153</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P24" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q24" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
@@ -6101,19 +6101,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U24" t="n">
-        <v>1293.279245302185</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V24" t="n">
-        <v>1079.567718295218</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W24" t="n">
-        <v>866.3345500315471</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X24" t="n">
-        <v>690.00856817044</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y24" t="n">
-        <v>530.60660853427</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>909.831851855271</v>
+        <v>836.9496357110235</v>
       </c>
       <c r="C25" t="n">
-        <v>738.7384794169875</v>
+        <v>665.85626327274</v>
       </c>
       <c r="D25" t="n">
-        <v>579.2438347398975</v>
+        <v>506.36161859565</v>
       </c>
       <c r="E25" t="n">
-        <v>418.3330196082169</v>
+        <v>345.4508034639695</v>
       </c>
       <c r="F25" t="n">
-        <v>253.7018937188082</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G25" t="n">
-        <v>86.45150264435162</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H25" t="n">
-        <v>86.45150264435162</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I25" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6165,34 +6165,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P25" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q25" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S25" t="n">
-        <v>1560.611119000867</v>
+        <v>1359.296522188197</v>
       </c>
       <c r="T25" t="n">
-        <v>1560.611119000867</v>
+        <v>1119.747783164899</v>
       </c>
       <c r="U25" t="n">
-        <v>1560.611119000867</v>
+        <v>836.9496357110235</v>
       </c>
       <c r="V25" t="n">
-        <v>1560.611119000867</v>
+        <v>836.9496357110235</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.611119000867</v>
+        <v>836.9496357110235</v>
       </c>
       <c r="X25" t="n">
-        <v>1322.267256860551</v>
+        <v>836.9496357110235</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.531558249315</v>
+        <v>836.9496357110235</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>425.3059392994282</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="C26" t="n">
-        <v>31.21222238001734</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="D26" t="n">
-        <v>31.21222238001734</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="E26" t="n">
-        <v>31.21222238001734</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="F26" t="n">
-        <v>31.21222238001734</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G26" t="n">
-        <v>31.21222238001734</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H26" t="n">
-        <v>31.21222238001734</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I26" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J26" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>671.6489458004862</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L26" t="n">
-        <v>812.6422145632956</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M26" t="n">
-        <v>812.6422145632956</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N26" t="n">
-        <v>812.6422145632956</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O26" t="n">
-        <v>1198.89346651601</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P26" t="n">
-        <v>1198.89346651601</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R26" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1460.22044882416</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T26" t="n">
-        <v>1460.22044882416</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U26" t="n">
-        <v>1203.159957083671</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V26" t="n">
-        <v>1203.159957083671</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W26" t="n">
-        <v>819.3996562188391</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="X26" t="n">
-        <v>425.3059392994282</v>
+        <v>687.2504262878256</v>
       </c>
       <c r="Y26" t="n">
-        <v>425.3059392994282</v>
+        <v>293.1567093684146</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.9527650369014</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C27" t="n">
-        <v>151.7050383876894</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D27" t="n">
-        <v>151.7050383876894</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E27" t="n">
-        <v>31.21222238001734</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F27" t="n">
-        <v>31.21222238001734</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G27" t="n">
-        <v>31.21222238001734</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H27" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I27" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N27" t="n">
-        <v>408.7046310488247</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O27" t="n">
-        <v>794.9558830015393</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P27" t="n">
         <v>1181.207134954254</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R27" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T27" t="n">
-        <v>1293.279245302184</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U27" t="n">
         <v>1095.928434440403</v>
       </c>
       <c r="V27" t="n">
-        <v>882.2169074334365</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W27" t="n">
-        <v>668.9837391697653</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="X27" t="n">
-        <v>492.6577573086581</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="Y27" t="n">
-        <v>333.2557976724881</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>851.8724644036035</v>
+        <v>202.3055948183008</v>
       </c>
       <c r="C28" t="n">
-        <v>851.8724644036035</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D28" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E28" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F28" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G28" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H28" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I28" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K28" t="n">
         <v>199.8470995074659</v>
@@ -6393,7 +6393,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6402,34 +6402,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P28" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q28" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1374.219350880777</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T28" t="n">
-        <v>1134.670611857479</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U28" t="n">
-        <v>851.8724644036035</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V28" t="n">
-        <v>851.8724644036035</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W28" t="n">
-        <v>851.8724644036035</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="X28" t="n">
-        <v>851.8724644036035</v>
+        <v>526.0346253228993</v>
       </c>
       <c r="Y28" t="n">
-        <v>851.8724644036035</v>
+        <v>390.0053012123452</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>736.2144366717102</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C29" t="n">
-        <v>736.2144366717102</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D29" t="n">
-        <v>736.2144366717102</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E29" t="n">
-        <v>736.2144366717102</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F29" t="n">
         <v>342.1207197522994</v>
@@ -6457,58 +6457,58 @@
         <v>342.1207197522994</v>
       </c>
       <c r="H29" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I29" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J29" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>285.3976938477716</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="L29" t="n">
-        <v>285.3976938477716</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M29" t="n">
-        <v>285.3976938477716</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N29" t="n">
-        <v>426.390962610581</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O29" t="n">
-        <v>812.6422145632956</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P29" t="n">
-        <v>1198.89346651601</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q29" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R29" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U29" t="n">
-        <v>1081.344143207236</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V29" t="n">
-        <v>736.2144366717102</v>
+        <v>725.8810206171308</v>
       </c>
       <c r="W29" t="n">
-        <v>736.2144366717102</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="X29" t="n">
-        <v>736.2144366717102</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="Y29" t="n">
-        <v>736.2144366717102</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>530.3359714847725</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C30" t="n">
-        <v>396.3409002337181</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D30" t="n">
-        <v>279.4437424531105</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E30" t="n">
-        <v>158.9509264454385</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F30" t="n">
-        <v>158.9509264454385</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G30" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I30" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M30" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N30" t="n">
-        <v>610.2763318953652</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O30" t="n">
-        <v>794.9558830015393</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P30" t="n">
         <v>1181.207134954254</v>
       </c>
       <c r="Q30" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R30" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S30" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T30" t="n">
-        <v>1401.269255187875</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U30" t="n">
         <v>1203.918444326094</v>
       </c>
       <c r="V30" t="n">
-        <v>990.2069173191278</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W30" t="n">
-        <v>990.2069173191278</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X30" t="n">
-        <v>830.0409637565291</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y30" t="n">
-        <v>670.6390041203591</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.21222238001735</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="C31" t="n">
-        <v>31.21222238001735</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="D31" t="n">
-        <v>31.21222238001735</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E31" t="n">
-        <v>31.21222238001735</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F31" t="n">
         <v>31.21222238001735</v>
@@ -6621,7 +6621,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J31" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
         <v>199.8470995074659</v>
@@ -6630,7 +6630,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6639,34 +6639,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P31" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q31" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
         <v>1475.338400676267</v>
       </c>
       <c r="S31" t="n">
-        <v>1288.946632556177</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T31" t="n">
-        <v>1049.397893532879</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U31" t="n">
-        <v>766.5997460790034</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V31" t="n">
-        <v>492.7140010185253</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="W31" t="n">
-        <v>443.647627385297</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="X31" t="n">
-        <v>443.647627385297</v>
+        <v>537.168286332085</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.9119287740617</v>
+        <v>537.168286332085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>822.5661993546371</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="C32" t="n">
-        <v>822.5661993546371</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="D32" t="n">
-        <v>822.5661993546371</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="E32" t="n">
-        <v>428.4724824352262</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="F32" t="n">
-        <v>428.4724824352262</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="G32" t="n">
-        <v>428.4724824352262</v>
+        <v>157.8756341625153</v>
       </c>
       <c r="H32" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I32" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L32" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M32" t="n">
-        <v>80.69635634743133</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N32" t="n">
-        <v>466.9476083001459</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O32" t="n">
-        <v>853.1988602528605</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P32" t="n">
-        <v>1239.450112205575</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q32" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R32" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U32" t="n">
-        <v>1303.550627260377</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V32" t="n">
-        <v>1303.550627260377</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W32" t="n">
-        <v>1303.550627260377</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X32" t="n">
-        <v>909.4569103409664</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="Y32" t="n">
-        <v>822.5661993546371</v>
+        <v>946.0630680013373</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>192.9527650369014</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C33" t="n">
-        <v>58.95769378584714</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D33" t="n">
-        <v>51.96081375977717</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E33" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F33" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G33" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H33" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I33" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>610.2763318953652</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>996.5275838480798</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>996.5275838480798</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N33" t="n">
-        <v>996.5275838480798</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O33" t="n">
-        <v>1174.359867048152</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P33" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R33" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T33" t="n">
-        <v>1293.279245302184</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U33" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V33" t="n">
-        <v>882.2169074334365</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9837391697653</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X33" t="n">
-        <v>492.6577573086581</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y33" t="n">
-        <v>333.2557976724881</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>399.9161339304961</v>
+        <v>839.5689008960712</v>
       </c>
       <c r="C34" t="n">
-        <v>228.8227614922126</v>
+        <v>668.4755284577877</v>
       </c>
       <c r="D34" t="n">
-        <v>228.8227614922126</v>
+        <v>508.9808837806978</v>
       </c>
       <c r="E34" t="n">
-        <v>67.91194636053211</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="F34" t="n">
-        <v>31.21222238001734</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G34" t="n">
-        <v>31.21222238001734</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H34" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J34" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L34" t="n">
         <v>459.7441997875264</v>
@@ -6879,31 +6879,31 @@
         <v>1495.083089198357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.219350880777</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T34" t="n">
-        <v>1374.219350880777</v>
+        <v>1122.367048349947</v>
       </c>
       <c r="U34" t="n">
-        <v>1091.421203426901</v>
+        <v>839.5689008960712</v>
       </c>
       <c r="V34" t="n">
-        <v>1091.421203426901</v>
+        <v>839.5689008960712</v>
       </c>
       <c r="W34" t="n">
-        <v>812.3515389357758</v>
+        <v>839.5689008960712</v>
       </c>
       <c r="X34" t="n">
-        <v>812.3515389357758</v>
+        <v>839.5689008960712</v>
       </c>
       <c r="Y34" t="n">
-        <v>587.6158403245405</v>
+        <v>839.5689008960712</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>425.3059392994282</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C35" t="n">
-        <v>31.21222238001734</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D35" t="n">
-        <v>31.21222238001734</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E35" t="n">
-        <v>31.21222238001734</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J35" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>671.6489458004862</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L35" t="n">
-        <v>1057.900197753201</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M35" t="n">
-        <v>1198.89346651601</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N35" t="n">
-        <v>1198.89346651601</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O35" t="n">
-        <v>1198.89346651601</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P35" t="n">
-        <v>1198.89346651601</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R35" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1435.699857191391</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T35" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U35" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V35" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W35" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X35" t="n">
-        <v>819.3996562188391</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="Y35" t="n">
-        <v>425.3059392994282</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.2946288498932</v>
+        <v>473.3444803836352</v>
       </c>
       <c r="C36" t="n">
-        <v>218.2995575988389</v>
+        <v>339.3494091325809</v>
       </c>
       <c r="D36" t="n">
-        <v>218.2995575988389</v>
+        <v>222.4522513519733</v>
       </c>
       <c r="E36" t="n">
-        <v>218.2995575988389</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="F36" t="n">
-        <v>208.9495480299626</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G36" t="n">
         <v>101.9594353443013</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J36" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
-        <v>610.2763318953652</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
-        <v>610.2763318953652</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M36" t="n">
-        <v>996.5275838480798</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N36" t="n">
-        <v>996.5275838480798</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O36" t="n">
-        <v>996.5275838480798</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P36" t="n">
         <v>1181.207134954254</v>
       </c>
       <c r="Q36" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T36" t="n">
-        <v>1452.621109115176</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U36" t="n">
-        <v>1255.270298253394</v>
+        <v>1376.320149787136</v>
       </c>
       <c r="V36" t="n">
-        <v>1041.558771246428</v>
+        <v>1162.60862278017</v>
       </c>
       <c r="W36" t="n">
-        <v>828.325602982757</v>
+        <v>949.3754545164991</v>
       </c>
       <c r="X36" t="n">
-        <v>651.9996211216499</v>
+        <v>773.0494726553918</v>
       </c>
       <c r="Y36" t="n">
-        <v>492.5976614854799</v>
+        <v>613.6475130192218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.20002678548</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="C37" t="n">
         <v>833.1066543471966</v>
@@ -7089,22 +7089,22 @@
         <v>180.8196775745607</v>
       </c>
       <c r="H37" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L37" t="n">
-        <v>459.7441997875262</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7113,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S37" t="n">
-        <v>1374.219350880777</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1374.219350880777</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U37" t="n">
-        <v>1374.219350880777</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V37" t="n">
-        <v>1374.219350880777</v>
+        <v>1020.806360741241</v>
       </c>
       <c r="W37" t="n">
-        <v>1374.219350880777</v>
+        <v>1020.806360741241</v>
       </c>
       <c r="X37" t="n">
-        <v>1374.219350880777</v>
+        <v>1020.806360741241</v>
       </c>
       <c r="Y37" t="n">
-        <v>1191.899733179524</v>
+        <v>1020.806360741241</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C38" t="n">
-        <v>819.3996562188391</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D38" t="n">
-        <v>425.3059392994282</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E38" t="n">
-        <v>425.3059392994282</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F38" t="n">
-        <v>425.3059392994282</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J38" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K38" t="n">
-        <v>417.4634743327319</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L38" t="n">
-        <v>417.4634743327319</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M38" t="n">
-        <v>426.390962610581</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N38" t="n">
-        <v>426.390962610581</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O38" t="n">
-        <v>812.6422145632956</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P38" t="n">
-        <v>1198.89346651601</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T38" t="n">
-        <v>1560.611119000867</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U38" t="n">
-        <v>1560.611119000867</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V38" t="n">
-        <v>1560.611119000867</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W38" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X38" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y38" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>618.5472599225079</v>
+        <v>402.5972674193512</v>
       </c>
       <c r="C39" t="n">
-        <v>484.5521886714537</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D39" t="n">
-        <v>367.6550308908461</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E39" t="n">
-        <v>247.1622148831741</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F39" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G39" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H39" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J39" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>610.2763318953652</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="L39" t="n">
-        <v>996.5275838480798</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M39" t="n">
-        <v>996.5275838480798</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N39" t="n">
-        <v>996.5275838480798</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O39" t="n">
-        <v>996.5275838480798</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P39" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1293.279245302184</v>
+        <v>1502.923747684634</v>
       </c>
       <c r="U39" t="n">
-        <v>1293.279245302184</v>
+        <v>1305.572936822853</v>
       </c>
       <c r="V39" t="n">
-        <v>1079.567718295218</v>
+        <v>1091.861409815886</v>
       </c>
       <c r="W39" t="n">
-        <v>1079.567718295218</v>
+        <v>878.6282415522151</v>
       </c>
       <c r="X39" t="n">
-        <v>918.2522521942645</v>
+        <v>702.3022596911078</v>
       </c>
       <c r="Y39" t="n">
-        <v>758.8502925580946</v>
+        <v>542.9003000549378</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.9640399102699</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="C40" t="n">
-        <v>176.8706674719864</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="D40" t="n">
-        <v>176.8706674719864</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E40" t="n">
-        <v>176.8706674719864</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F40" t="n">
-        <v>176.8706674719864</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G40" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H40" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J40" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L40" t="n">
         <v>459.7441997875264</v>
@@ -7356,28 +7356,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S40" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T40" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U40" t="n">
-        <v>1277.812971546992</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.812971546992</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="W40" t="n">
-        <v>998.7433070558661</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="X40" t="n">
-        <v>760.3994449155496</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="Y40" t="n">
-        <v>535.6637463043143</v>
+        <v>516.2488080781966</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1176.850818136036</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="C41" t="n">
-        <v>1176.850818136036</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="D41" t="n">
-        <v>1176.850818136036</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="E41" t="n">
-        <v>819.3996562188394</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="F41" t="n">
-        <v>425.3059392994284</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G41" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H41" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I41" t="n">
         <v>31.21222238001735</v>
@@ -7414,49 +7414,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K41" t="n">
-        <v>80.69635634743145</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L41" t="n">
-        <v>466.9476083001462</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="M41" t="n">
-        <v>853.1988602528609</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N41" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O41" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P41" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R41" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V41" t="n">
-        <v>1560.611119000868</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W41" t="n">
-        <v>1176.850818136036</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="X41" t="n">
-        <v>1176.850818136036</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="Y41" t="n">
-        <v>1176.850818136036</v>
+        <v>511.6577019823552</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.5571472368467</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="C42" t="n">
-        <v>377.5620759857924</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D42" t="n">
-        <v>260.6649182051848</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E42" t="n">
-        <v>140.1721021975128</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F42" t="n">
-        <v>31.21222238001735</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G42" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H42" t="n">
         <v>31.21222238001735</v>
@@ -7493,7 +7493,7 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>408.7046310488249</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
         <v>794.9558830015396</v>
@@ -7526,16 +7526,16 @@
         <v>1095.928434440403</v>
       </c>
       <c r="V42" t="n">
-        <v>1095.928434440403</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W42" t="n">
-        <v>987.5881213697105</v>
+        <v>871.9284161324315</v>
       </c>
       <c r="X42" t="n">
-        <v>811.2621395086032</v>
+        <v>695.6024342713242</v>
       </c>
       <c r="Y42" t="n">
-        <v>651.8601798724333</v>
+        <v>695.6024342713242</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>723.4400837351815</v>
+      </c>
+      <c r="C43" t="n">
+        <v>552.346711296898</v>
+      </c>
+      <c r="D43" t="n">
+        <v>392.852066619808</v>
+      </c>
+      <c r="E43" t="n">
+        <v>231.9412514881275</v>
+      </c>
+      <c r="F43" t="n">
+        <v>67.31012559871874</v>
+      </c>
+      <c r="G43" t="n">
         <v>31.21222238001735</v>
       </c>
-      <c r="C43" t="n">
-        <v>31.21222238001734</v>
-      </c>
-      <c r="D43" t="n">
-        <v>31.21222238001734</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31.21222238001734</v>
-      </c>
-      <c r="F43" t="n">
-        <v>31.21222238001734</v>
-      </c>
-      <c r="G43" t="n">
-        <v>31.21222238001734</v>
-      </c>
       <c r="H43" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I43" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L43" t="n">
         <v>459.7441997875264</v>
@@ -7599,22 +7599,22 @@
         <v>1374.219350880778</v>
       </c>
       <c r="T43" t="n">
-        <v>1134.67061185748</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U43" t="n">
-        <v>851.872464403604</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V43" t="n">
-        <v>577.986719343126</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="W43" t="n">
-        <v>298.9170548520003</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="X43" t="n">
-        <v>60.5731927116837</v>
+        <v>1135.875488740461</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.21222238001735</v>
+        <v>911.1397901292258</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C44" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E44" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F44" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H44" t="n">
         <v>31.21222238001735</v>
@@ -7651,22 +7651,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="L44" t="n">
         <v>671.6489458004863</v>
       </c>
-      <c r="L44" t="n">
-        <v>1057.900197753201</v>
-      </c>
       <c r="M44" t="n">
-        <v>1444.151449705916</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N44" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q44" t="n">
         <v>1520.054473311303</v>
@@ -7675,25 +7675,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.330043794968</v>
+        <v>1415.964286568269</v>
       </c>
       <c r="U44" t="n">
-        <v>1425.330043794968</v>
+        <v>1158.903794827779</v>
       </c>
       <c r="V44" t="n">
-        <v>1075.492489131449</v>
+        <v>809.0662401642599</v>
       </c>
       <c r="W44" t="n">
-        <v>1075.492489131449</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X44" t="n">
-        <v>681.398772212038</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y44" t="n">
-        <v>681.398772212038</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I45" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N45" t="n">
-        <v>803.7147262854468</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.965978238161</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P45" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q45" t="n">
         <v>1531.051599638238</v>
@@ -7757,22 +7757,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U45" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>1346.899591993901</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W45" t="n">
-        <v>1133.66642373023</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>486.5136998550713</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5136998550713</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D46" t="n">
-        <v>327.0190551779813</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E46" t="n">
-        <v>166.1082400463008</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I46" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N46" t="n">
         <v>1029.84703862227</v>
@@ -7824,34 +7824,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T46" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U46" t="n">
-        <v>1277.812971546992</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="V46" t="n">
-        <v>1003.927226486514</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="W46" t="n">
-        <v>724.8575619953879</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="X46" t="n">
-        <v>486.5136998550713</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="Y46" t="n">
-        <v>486.5136998550713</v>
+        <v>1192.540253222391</v>
       </c>
     </row>
   </sheetData>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M23" t="n">
-        <v>143.2741981615041</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>276.5735275978785</v>
       </c>
       <c r="P23" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M24" t="n">
-        <v>431.9533148118579</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>479.2891694234339</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>237.9028412576018</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O26" t="n">
-        <v>483.3425553759999</v>
+        <v>483.342555376</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9956,22 +9956,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>239.7383945110976</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>447.9042587502168</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P27" t="n">
-        <v>444.4124147530205</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10114,7 +10114,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>231.5538328679743</v>
       </c>
       <c r="L29" t="n">
         <v>95.48539806284482</v>
@@ -10123,13 +10123,13 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>235.3297339513763</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>483.3425553759999</v>
+        <v>483.342555376</v>
       </c>
       <c r="P29" t="n">
-        <v>483.802143031101</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q29" t="n">
         <v>414.4388617681339</v>
@@ -10193,7 +10193,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -10202,13 +10202,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>244.2964801173476</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P30" t="n">
-        <v>444.4124147530205</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>89.13638967321712</v>
@@ -10357,16 +10357,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>143.274198161504</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068361</v>
+        <v>276.2960427287148</v>
       </c>
       <c r="O32" t="n">
-        <v>483.3425553759999</v>
+        <v>483.342555376</v>
       </c>
       <c r="P32" t="n">
-        <v>483.802143031101</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10430,10 +10430,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9785625348322</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,10 +10442,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>237.3800478889623</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P33" t="n">
-        <v>444.4124147530205</v>
+        <v>233.8882038917663</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10527,7 +10527,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533705</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>479.2891694234339</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>485.6381778130616</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>235.7076676518025</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>276.2960427287148</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9785625348322</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M36" t="n">
-        <v>447.7170634886342</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10682,7 +10682,7 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>240.8046361201513</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.150617409114</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>479.2891694234339</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M38" t="n">
-        <v>102.3078893841657</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>483.3425553759999</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>483.802143031101</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9785625348322</v>
+        <v>235.4543516735779</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P39" t="n">
-        <v>240.8046361201513</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>139.1203633776758</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>485.6381778130617</v>
+        <v>104.5030629899652</v>
       </c>
       <c r="M41" t="n">
         <v>483.4430042072623</v>
@@ -11077,13 +11077,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>242.3707839019632</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11299,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>169.5820115701414</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -11387,16 +11387,16 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>398.7905657099514</v>
+        <v>240.8046361201516</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C23" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>20.04403357805535</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>293.157958734468</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -24226,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>95.75436031855669</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24271,7 +24271,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24287,25 +24287,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>68.1587867428445</v>
+        <v>91.81987115582335</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>60.49569797502618</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>69.64639073569967</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24429,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,7 +24454,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>242.9833108634336</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24463,7 +24463,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>34.54150097890059</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520203</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="27">
@@ -24524,22 +24524,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>91.81987115582379</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>20.54110546596223</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>159.0076286890867</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>96.60443348087411</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>87.81931075567442</v>
       </c>
     </row>
     <row r="29">
@@ -24691,7 +24691,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>26.66732817563252</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4.660769646713504</v>
+        <v>128.3589522065197</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>15.99842801552342</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>7.212727628435346</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24846,10 +24846,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>227.7032579493184</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>20.04403357805546</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>182.4026347338862</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>6.484184102520203</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>310.9055024449248</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>108.8012749769922</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -25016,7 +25016,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>126.652087889805</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>72.23946326889674</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,7 +25165,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>10.26611526245897</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520203</v>
+        <v>16.75029936497907</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.774526571174022</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>98.61377154613288</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>170.6776884064314</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>253.8635945452449</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.99192010088265</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>10.26651085765326</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G38" t="n">
-        <v>14.48822151587933</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25444,19 +25444,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>76.78405510433709</v>
       </c>
       <c r="X38" t="n">
-        <v>52.99039544874609</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>100.6379475717906</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>14.86041060255229</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.37602652266267</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>19.60826085595141</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>56.32016303024739</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G41" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>296.2005646142749</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>20.54110546596223</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>103.8439266410488</v>
+        <v>200.9152301930391</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>129.8409629771976</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.4209809967732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.23369593270331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25882,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>76.7840551043372</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>6.484184102520089</v>
@@ -25949,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>51.88353852249344</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>114.5484705942788</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>29.43775714089409</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493447.8261034161</v>
+        <v>493447.8261034162</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>493447.8261034162</v>
+        <v>493447.8261034163</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493447.826103416</v>
+        <v>493447.8261034162</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493447.8261034162</v>
+        <v>493447.8261034163</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493447.8261034161</v>
+        <v>493447.8261034162</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493447.8261034162</v>
+        <v>493447.8261034163</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>29101.36365410268</v>
       </c>
       <c r="E2" t="n">
-        <v>29101.36365410269</v>
+        <v>29101.36365410268</v>
       </c>
       <c r="F2" t="n">
         <v>29101.36365410268</v>
@@ -26331,31 +26331,31 @@
         <v>29101.36365410268</v>
       </c>
       <c r="H2" t="n">
-        <v>29101.36365410268</v>
+        <v>29101.36365410267</v>
       </c>
       <c r="I2" t="n">
         <v>95419.158609376</v>
       </c>
       <c r="J2" t="n">
-        <v>95419.15860937593</v>
+        <v>95419.158609376</v>
       </c>
       <c r="K2" t="n">
-        <v>95419.15860937598</v>
+        <v>95419.15860937595</v>
       </c>
       <c r="L2" t="n">
+        <v>95419.15860937603</v>
+      </c>
+      <c r="M2" t="n">
+        <v>95419.15860937603</v>
+      </c>
+      <c r="N2" t="n">
+        <v>95419.158609376</v>
+      </c>
+      <c r="O2" t="n">
         <v>95419.15860937597</v>
       </c>
-      <c r="M2" t="n">
-        <v>95419.15860937598</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>95419.15860937597</v>
-      </c>
-      <c r="O2" t="n">
-        <v>95419.15860937595</v>
-      </c>
-      <c r="P2" t="n">
-        <v>95419.15860937598</v>
       </c>
     </row>
     <row r="3">
@@ -26438,22 +26438,22 @@
         <v>9700.454551367558</v>
       </c>
       <c r="I4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="J4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="K4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="L4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="M4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="N4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="O4" t="n">
         <v>32593.54773220027</v>
@@ -26493,19 +26493,19 @@
         <v>23721.28900881319</v>
       </c>
       <c r="J5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="K5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="L5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="M5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="N5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="O5" t="n">
         <v>23721.28900881319</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273513</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="H6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619473</v>
       </c>
       <c r="I6" t="n">
-        <v>-64645.49547559486</v>
+        <v>-65479.15975084131</v>
       </c>
       <c r="J6" t="n">
-        <v>39104.32186836249</v>
+        <v>38270.65759311611</v>
       </c>
       <c r="K6" t="n">
-        <v>39104.32186836255</v>
+        <v>38270.65759311606</v>
       </c>
       <c r="L6" t="n">
-        <v>39104.32186836253</v>
+        <v>38270.65759311614</v>
       </c>
       <c r="M6" t="n">
-        <v>39104.32186836255</v>
+        <v>38270.65759311614</v>
       </c>
       <c r="N6" t="n">
-        <v>39104.32186836253</v>
+        <v>38270.65759311611</v>
       </c>
       <c r="O6" t="n">
-        <v>39104.3218683625</v>
+        <v>38270.65759311608</v>
       </c>
       <c r="P6" t="n">
-        <v>39104.32186836253</v>
+        <v>38270.65759311608</v>
       </c>
     </row>
   </sheetData>
@@ -26813,19 +26813,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O4" t="n">
         <v>390.1527797502169</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M23" t="n">
-        <v>49.98397370445868</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>183.3837519720954</v>
       </c>
       <c r="P23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M24" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>142.417443194757</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36676,22 +36676,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>186.5450011173476</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>390.1527797502168</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
@@ -36773,7 +36773,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>142.417443194757</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P29" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q29" t="n">
         <v>324.4050573689818</v>
@@ -36913,7 +36913,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>186.5450011173476</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>49.98397370445858</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>390.1527797502168</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="O32" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P32" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37150,10 +37150,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>179.6285688889623</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1527797502168</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.18992909344489</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M36" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>186.5450011173476</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K37" t="n">
         <v>156.1134623456949</v>
       </c>
       <c r="L37" t="n">
-        <v>262.5223235152125</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M37" t="n">
         <v>292.1859155964578</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M38" t="n">
-        <v>9.017664927120283</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>390.1527797502168</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="L39" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P39" t="n">
-        <v>186.5450011173476</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>49.98397370445868</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>390.1527797502169</v>
+        <v>9.017664927120396</v>
       </c>
       <c r="M41" t="n">
         <v>390.1527797502169</v>
@@ -37797,13 +37797,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5450011173478</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O44" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N44" t="n">
-        <v>76.66972081352203</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>344.5309307071477</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>
